--- a/Document/Android/Service/android_Service.xlsx
+++ b/Document/Android/Service/android_Service.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7340" yWindow="360" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5040" yWindow="980" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Library" sheetId="4" r:id="rId1"/>
-    <sheet name="SQLite" sheetId="5" r:id="rId2"/>
+    <sheet name="Service" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -614,27 +614,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="81">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -1256,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1273,15 +1273,15 @@
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="9" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="6" t="s">
         <v>71</v>
       </c>
@@ -1289,15 +1289,15 @@
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="9" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="6" t="s">
         <v>72</v>
       </c>
@@ -1305,15 +1305,15 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="9" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="6" t="s">
         <v>73</v>
       </c>
@@ -1321,15 +1321,15 @@
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="9" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="6" t="s">
         <v>74</v>
       </c>
@@ -1337,15 +1337,15 @@
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="9" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="6" t="s">
         <v>75</v>
       </c>
@@ -1353,15 +1353,15 @@
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="9" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="11"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="6" t="s">
         <v>76</v>
       </c>
@@ -1369,31 +1369,31 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="12" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15" t="s">
+      <c r="G11" s="16"/>
+      <c r="H11" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="9" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="6" t="s">
         <v>78</v>
       </c>
@@ -1401,15 +1401,15 @@
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="9" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="6" t="s">
         <v>79</v>
       </c>
@@ -1417,15 +1417,15 @@
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="9" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="6" t="s">
         <v>80</v>
       </c>
@@ -1433,15 +1433,15 @@
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="9" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="6" t="s">
         <v>81</v>
       </c>
@@ -1449,15 +1449,15 @@
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="9" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="11"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="6" t="s">
         <v>82</v>
       </c>
@@ -1465,15 +1465,15 @@
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="9" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="6" t="s">
         <v>83</v>
       </c>
@@ -1481,15 +1481,15 @@
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="9" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="11"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="3" t="s">
         <v>84</v>
       </c>
@@ -1563,11 +1563,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C17:E17"/>
@@ -1584,13 +1586,11 @@
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
